--- a/magazzino.xlsx
+++ b/magazzino.xlsx
@@ -675,10 +675,10 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/magazzino.xlsx
+++ b/magazzino.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simone\Desktop\ArdSim\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="22980" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>simone</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0">
+    <comment ref="A27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0">
+    <comment ref="A29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,9 +249,6 @@
     <t>PAM8403 Amplif</t>
   </si>
   <si>
-    <t>AA Battery</t>
-  </si>
-  <si>
     <t>AA 6battery case</t>
   </si>
   <si>
@@ -272,6 +274,9 @@
   </si>
   <si>
     <t>conn strip curved</t>
+  </si>
+  <si>
+    <t>AA Battery recharge</t>
   </si>
 </sst>
 </file>
@@ -381,6 +386,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -428,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,7 +471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,21 +683,21 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -711,17 +719,17 @@
         <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -739,7 +747,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -766,7 +774,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -786,7 +794,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -800,7 +808,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -818,7 +826,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -838,7 +846,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -858,9 +866,9 @@
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -878,7 +886,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -892,7 +900,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -918,7 +926,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -942,7 +950,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -971,7 +979,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -985,7 +993,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -999,9 +1007,9 @@
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1018,9 +1026,9 @@
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1043,7 +1051,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1057,7 +1065,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1089,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1090,7 +1098,9 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>10</v>
+      </c>
       <c r="H20" s="2">
         <v>20</v>
       </c>
@@ -1099,7 +1109,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1117,7 +1127,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1145,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1153,9 +1163,9 @@
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1171,7 +1181,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1185,7 +1195,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
@@ -1207,7 +1217,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -1225,7 +1235,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
@@ -1243,7 +1253,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1271,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
@@ -1281,7 +1291,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1311,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1329,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -1341,7 +1351,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -1361,7 +1371,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1375,7 +1385,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1389,7 +1399,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -1407,9 +1417,9 @@
       <c r="K37" s="2"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1425,9 +1435,9 @@
       <c r="K38" s="2"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1443,9 +1453,9 @@
       <c r="K39" s="2"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1476,7 +1486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1488,7 +1498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
